--- a/MSiA 410/hw03/CLVcalculatorTemplate.xlsx
+++ b/MSiA 410/hw03/CLVcalculatorTemplate.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelshapiro/Dropbox/1aa-ExecEd/a-Programs/a_FY20/103019_CustomerFocusedOrg/BugBattalion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\NW Work\Winter Work\MSiA 410\hw03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C6ADD-6844-2F4B-8E38-D3A998C3EA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0ED644-C288-494F-9476-74D894822868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="16280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8597" yWindow="1826" windowWidth="21446" windowHeight="15745" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO Autopay" sheetId="9" r:id="rId1"/>
     <sheet name="Autopay" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -90,7 +82,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -494,75 +486,75 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -995,26 +987,26 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10 16384:16384" ht="21" customHeight="1">
+    <row r="1" spans="1:10 16384:16384" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10 16384:16384" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:10 16384:16384" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1020,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10 16384:16384" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10 16384:16384" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1034,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10 16384:16384" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:10 16384:16384" s="1" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="5" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1080,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="6" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1094,7 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="7" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="8" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="9" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1169,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="10" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="11" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1">
+    <row r="13" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1">
+    <row r="14" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="15" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1390,7 +1382,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10 16384:16384" ht="16">
+    <row r="16" spans="1:10 16384:16384" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="C16" s="5"/>
     </row>
@@ -1409,29 +1401,25 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="5.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10 16384:16384" ht="21" customHeight="1">
+    <row r="1" spans="1:10 16384:16384" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10 16384:16384" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:10 16384:16384" s="1" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1433,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10 16384:16384" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10 16384:16384" s="1" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1447,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10 16384:16384" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:10 16384:16384" s="1" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1491,25 +1479,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="5" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1200000</v>
+      </c>
+      <c r="D5" s="33">
+        <f>C5 * 1.05</f>
+        <v>1260000</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" ref="E5:I5" si="0">D5 * 1.05</f>
+        <v>1323000</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
+        <v>1389150</v>
+      </c>
+      <c r="G5" s="33">
+        <f t="shared" si="0"/>
+        <v>1458607.5</v>
+      </c>
+      <c r="H5" s="33">
+        <f t="shared" si="0"/>
+        <v>1531537.875</v>
+      </c>
+      <c r="I5" s="33">
+        <f t="shared" si="0"/>
+        <v>1608114.76875</v>
+      </c>
+      <c r="J5" s="33">
+        <f>I5 * 1.05</f>
+        <v>1688520.5071875001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -1519,11 +1534,13 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="7" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1537,48 +1554,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="8" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="21">
-        <f t="shared" ref="B8:J8" si="0">B5-B6-B7</f>
+        <f t="shared" ref="B8:J8" si="1">B5-B6-B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1200000</v>
       </c>
       <c r="D8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1260000</v>
       </c>
       <c r="E8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1323000</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1389150</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1458607.5</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1531537.875</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1608114.76875</v>
       </c>
       <c r="J8" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>1688520.5071875001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1611,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+    <row r="10" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1606,35 +1623,35 @@
         <v>1</v>
       </c>
       <c r="D10" s="26">
-        <f t="shared" ref="D10:J10" si="1">C10*(1-D9)</f>
+        <f t="shared" ref="D10:J10" si="2">C10*(1-D9)</f>
         <v>1</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I10" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J10" s="27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1646,76 +1663,76 @@
         <v>1</v>
       </c>
       <c r="D11" s="26">
-        <f t="shared" ref="D11:J11" si="2">(C10+D10)/2</f>
+        <f t="shared" ref="D11:J11" si="3">(C10+D10)/2</f>
         <v>1</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J11" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="21">
-        <f t="shared" ref="B12:J12" si="3">B11*B8</f>
+        <f t="shared" ref="B12:J12" si="4">B11*B8</f>
         <v>0</v>
       </c>
       <c r="C12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1200000</v>
       </c>
       <c r="D12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1260000</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1323000</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1389150</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1458607.5</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1531537.875</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1608114.76875</v>
       </c>
       <c r="J12" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1">
+        <f t="shared" si="4"/>
+        <v>1688520.5071875001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1725,38 +1742,38 @@
       </c>
       <c r="C13" s="29">
         <f>C12/(1+$B$2)^AVERAGE(C4,B4)</f>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="D13" s="29">
         <f>D12/(1+$B$2)^AVERAGE(D4,C4)</f>
-        <v>0</v>
+        <v>1260000</v>
       </c>
       <c r="E13" s="29">
         <f>E12/(1+$B$2)^AVERAGE(E4,D4)</f>
-        <v>0</v>
+        <v>1323000</v>
       </c>
       <c r="F13" s="29">
         <f>F12/(1+$B$2)^AVERAGE(F4,E4)</f>
-        <v>0</v>
+        <v>1389150</v>
       </c>
       <c r="G13" s="29">
         <f>G12/(1+$B$2)^AVERAGE(G4,F4)</f>
-        <v>0</v>
+        <v>1458607.5</v>
       </c>
       <c r="H13" s="29">
         <f>H12/(1+$B$2)^AVERAGE(H4,G4)</f>
-        <v>0</v>
+        <v>1531537.875</v>
       </c>
       <c r="I13" s="29">
         <f>I12/(1+$B$2)^AVERAGE(I4,H4)</f>
-        <v>0</v>
+        <v>1608114.76875</v>
       </c>
       <c r="J13" s="29">
         <f>J12/(1+$B$2)^AVERAGE(J4,I4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1">
+        <v>1688520.5071875001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
@@ -1766,38 +1783,38 @@
       </c>
       <c r="C14" s="16">
         <f>B14+C13</f>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" ref="D14:J14" si="4">C14+D13</f>
-        <v>0</v>
+        <f t="shared" ref="D14:J14" si="5">C14+D13</f>
+        <v>2460000</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3783000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5172150</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6630757.5</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8162295.375</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>9770410.1437500007</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>11458930.650937501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10 16384:16384" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1807,7 +1824,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10 16384:16384" ht="16">
+    <row r="16" spans="1:10 16384:16384" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="C16" s="5"/>
     </row>
